--- a/Planilha Demandas.xlsx
+++ b/Planilha Demandas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,309 +20,303 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Cenario</t>
-  </si>
-  <si>
-    <t>Descrição Teste</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Resultado Esperado</t>
-  </si>
-  <si>
-    <t>Observação</t>
-  </si>
-  <si>
-    <t>Cadastrar Usuario</t>
-  </si>
-  <si>
-    <t>criar combo onde o usuario pode selecionar as opções: “dono barco” ou “cliente”</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Cadastrar Barco</t>
-  </si>
-  <si>
-    <t>fazer com que seja cadastrado o barco com o ID do usuario da sessao </t>
-  </si>
-  <si>
-    <t>Editar Barco</t>
-  </si>
-  <si>
-    <t>fazer com que seja atualizado o barco com o ID do usuario da sessao e ID do barco selecionado</t>
-  </si>
-  <si>
-    <t>Excluir Barco</t>
-  </si>
-  <si>
-    <t>fazer com que seja excluido o barco com o ID do usuario da sessao e ID do barco selecionado</t>
-  </si>
-  <si>
-    <t>Meus Barcos</t>
-  </si>
-  <si>
-    <t>listar os barcos usando o ID do usuário da sessão</t>
-  </si>
-  <si>
-    <t>Editar Conta Usuário</t>
-  </si>
-  <si>
-    <t>atualizar conta do usuário utilizando o ID do usuario da sessao</t>
-  </si>
-  <si>
-    <t>Login Usuario</t>
-  </si>
-  <si>
-    <t>quando o usuário se logar no app, tratar o menu de acordo com o perfil do usuário</t>
-  </si>
-  <si>
-    <t>Cadastrar Opcionais</t>
-  </si>
-  <si>
-    <t>permitir o dono barco adicionar opcionais a um barco sendo visualizado</t>
-  </si>
-  <si>
-    <t>Editar Opcionais</t>
-  </si>
-  <si>
-    <t>permitir o dono barco editar opcionais a um barco sendo visualizado</t>
-  </si>
-  <si>
-    <t>Excluir Opcionais</t>
-  </si>
-  <si>
-    <t>permitir o dono barco excluir opcionais a um barco sendo visualizado</t>
-  </si>
-  <si>
-    <t>Cadastrar Plano Reserva Barco</t>
-  </si>
-  <si>
-    <t>dono do barco incluir um novo plano usando o ID do usuario da sessao e o ID do barco selecionado (falta criar a tabela de Historico de Planos)</t>
-  </si>
-  <si>
-    <t>incompleto</t>
-  </si>
-  <si>
-    <t>Se barco não tiver inicialmente nenhum associado então exibir mensagem de que nenhum plano foi incluido. Se o barco já tiver um plano associado então incluir o plano atual na tabela de historico. (esta desenvolvido, mas funcionalidade ainda não está 100%) de planos e substitui-lo pelo plano a ser incluido</t>
-  </si>
-  <si>
-    <t>Atualizar Plano Reserva Barco</t>
-  </si>
-  <si>
-    <t>dono do barco atualizar o plano atual usando o ID do usuario da sessao e o ID do barco selecionado (falta criar a tabela de Historico de Planos)</t>
-  </si>
-  <si>
-    <t>Pesquisar Barcos</t>
-  </si>
-  <si>
-    <t>recuperar barcos de acordo com os filtros selecionados, os barcos serão selecionados de acordo com os planos de reservas ativos</t>
-  </si>
-  <si>
-    <t>Detalhes Barcos na visão do Dono Barco</t>
-  </si>
-  <si>
-    <t>após pesquisar barcos, o cliente poder selecionar e visualizar os detalhes do barco</t>
-  </si>
-  <si>
-    <t>Detalhes Barcos na visão do Cliente</t>
-  </si>
-  <si>
-    <t>Solicitar Reserva</t>
-  </si>
-  <si>
-    <t>após pesquisar barcos, o cliente poder selecionar e visualizar os detalhes do barco, usando o ID do usuario sessao e o ID do barco</t>
-  </si>
-  <si>
-    <t>Aceitar ou Rejeitar solicitação de Reserva</t>
-  </si>
-  <si>
-    <t>Após o cliente solicitar a reserva do barco, o dono do barco deverá sinalizar que aceita ou rejeita esta solicitação</t>
-  </si>
-  <si>
-    <t>Gerar Ordem de Pagamento</t>
-  </si>
-  <si>
-    <t>Após o cliente solicitar a reserva de um barco e o dono do barco aceitar esta solicitação, o sistema deve utilizar o ID do barco selecionado, o ID do usuario da SESSAO e o ID do dono do barco para registrar uma nova Ordem de pagamento</t>
-  </si>
-  <si>
-    <t>Listar Ordem de Pagamento pelo Dono Barco</t>
-  </si>
-  <si>
-    <t>Dono barco lista as ordens de pagamento que está para receber a partir da solicitação de reservas feitas para seus barcos</t>
-  </si>
-  <si>
-    <t>Listar Ordem de Pagamento pelo Cliente</t>
-  </si>
-  <si>
-    <t>Cliente lista as suas ordens de pagamentos geradas a partir de suas solicitações de reservas anteriormente requeridas</t>
-  </si>
-  <si>
-    <t>Cliente efeuta pagamento</t>
-  </si>
-  <si>
-    <t>Após o cliente solicitar a reserva, o dono do barco aceitar a reserva e o sistema gerar a ordem de pagamento, o cliente efetua o pagamento a partir desta ordem de pagamento</t>
-  </si>
-  <si>
-    <t>Listar reservas solicitadas</t>
-  </si>
-  <si>
-    <t>Cliente listar suas reservas solicitadas</t>
-  </si>
-  <si>
-    <t>Registrar Historico Plano Reserva</t>
-  </si>
-  <si>
-    <t>Dono do Barco registrar um novo plano de reserva do barco, substituindo o plano anteriormente cadastrado. E o plano substituido</t>
-  </si>
-  <si>
-    <t>Listar histórico planos de reserva</t>
-  </si>
-  <si>
-    <t>Dono Barco listar o historico de planos de seu barco selecionado</t>
-  </si>
-  <si>
-    <t>Avaliar Barco</t>
-  </si>
-  <si>
-    <t>Cliente poder avaliar um barco logo após ele ter utilizado o barco</t>
-  </si>
-  <si>
-    <t>falta testar funcionalidade</t>
-  </si>
-  <si>
-    <t>Inicialmente usar uma combo que varia de 1 a 5. E mais para frente utilizar estrelas para permitir realizar a avaliação.</t>
-  </si>
-  <si>
-    <t>Avaliar Dono Barco</t>
-  </si>
-  <si>
-    <t>Cliente poder avaliar o dono barco logo após o cliente ter utilizado ou pelo menos ele ter solicitado a reserva do barco</t>
-  </si>
-  <si>
-    <t>Avaliar Cliente</t>
-  </si>
-  <si>
-    <t>Dono barco poder avaliar um cliente logo após ele ter utilizado o barco</t>
-  </si>
-  <si>
-    <t>Incluir campo Disponivel na tabela Barco do tipo CHAR(1) </t>
-  </si>
-  <si>
-    <t>falta criar campo 'Disponivel' na tabela e testar a funcionalidade</t>
-  </si>
-  <si>
-    <t>Se Disponivel = ‘S’ então barco poderá nas pesquisas de barco.  Se Disponivel = ‘N’ não deverá aparecer</t>
-  </si>
-  <si>
-    <t>Editar Usuário</t>
-  </si>
-  <si>
-    <t>Incluir campo Disponivel na tabela Usuario do tipo CHAR(1) </t>
-  </si>
-  <si>
-    <t>Este flag deverá estar disponivel apenas para Donos de barco Se Disponivel = ‘S’ então TODOS os barcos poderá aparecer nas pesquisas de barco.  Se Disponivel = ‘N’ nenhum barco deverá aparecer</t>
-  </si>
-  <si>
-    <t>Dono Barco editar suas informações, colocando Disponivel = 'N'</t>
-  </si>
-  <si>
-    <t>Colocando campo Disponivel = 'N' então todos os barcos deste usuário com perfil Dono de Barco não deverão estar disponiveis no “Pesquisar Barcos”.</t>
-  </si>
-  <si>
-    <t>Dono Barco estando inicialmente com o campo Disponivel = 'N', ele edita este campo e coloca Disponível = 'S'</t>
-  </si>
-  <si>
-    <t>Após a edição para campo Disponivel = 'S', os barcos do Dono Barco volta a aparecer na funcionalidade “Pesquisar Barcos”</t>
-  </si>
-  <si>
-    <t>Dono Barco coloca o seu barco com o campo Disponível = 'N'</t>
-  </si>
-  <si>
-    <t>Especificamente este barco não irá aparecer nos resultados do “Pesquisar Barcos”, os seus demais barcos deverão aparecer</t>
-  </si>
-  <si>
-    <t>Dono Barco coloca o seu barco com o campo Disponível = 'S', sendo que inicialmente este barco tinha valor Disponivel ='N'</t>
-  </si>
-  <si>
-    <t>Especificamente este barco volta a aparecer nos resultados do “Pesquisar Barcos”</t>
-  </si>
-  <si>
-    <t>Cadastrar Forma Pagamento</t>
-  </si>
-  <si>
-    <t>Funcionalidade disponivel para usuarios Clientes para cadastrarem a sua forma pagamento a ser usada para pagar as Ordebs de pagamento</t>
-  </si>
-  <si>
-    <t>Editar  Forma Pagamento</t>
-  </si>
-  <si>
-    <t>Funcionalidade disponivel para usuarios Clientes para editarem a sua forma pagamento  a ser usada para pagar as Ordebs de pagamento</t>
-  </si>
-  <si>
-    <t>Criar tabela FormaPagamentoRecebimento que será usado pelo Dono do Barco para definir qual Agencia e Conta de pagamento que ele deseja receber o pagamento</t>
-  </si>
-  <si>
-    <t>Cadastrar Forma Pagamento Recebimento</t>
-  </si>
-  <si>
-    <t>Funcionalidade disponivel para usuarios Donos de barco para cadastrarema em qual conta de banco desejam receber seus pagamentos</t>
-  </si>
-  <si>
-    <t>Editar Forma Pagamento Recebimento</t>
-  </si>
-  <si>
-    <t>Criar tabela TipoBarco que terá apenas 2 campos: Label e Value. Esta tabela será usada para carregar diversos combos do sistema</t>
-  </si>
-  <si>
-    <t>Criar tabela RecebimentoPagamento que será usada paga registrar os pagamentos que o sistema deverá enviar o dono do pagamento. Um registro desta tabela poderá estar associada a 1 ou mais registros da tabela OrdemPagamento</t>
-  </si>
-  <si>
-    <t>Criar tabela FormaPagamento que será usado pelo Cliente para definir como ele efetuará os pagamentos das Reservas</t>
-  </si>
-  <si>
-    <t>Cadastrar Forma Pagamento Recebimento para usuário Cliente</t>
-  </si>
-  <si>
-    <t>Editar Forma Pagamento para usuário Cliente</t>
-  </si>
-  <si>
-    <t>Transferir Pagamentos que o Dono do Barco tem direito a receber</t>
-  </si>
-  <si>
-    <t>Definir ainda um fluxo de processo e regras para esta operação</t>
-  </si>
-  <si>
-    <t>Cliente deseja cancelar solicitação de reserva</t>
-  </si>
-  <si>
-    <t>Definir ainda um fluxo de processo, os cenários possíveis  e regras para esta operação</t>
-  </si>
-  <si>
-    <t>Cliente deseja cancelar ordem de pagamento recebida</t>
-  </si>
-  <si>
-    <t>Cliente deseja receber cancelar uma reserva de barco já paga</t>
-  </si>
-  <si>
-    <t>Cliente ao clicar em 'Forma Pagamento' </t>
-  </si>
-  <si>
-    <t>Se cliente ainda nao cadastrou entao mensagem dizendo que ele ainda não adicionou nenhuma forma de pagamento. E botão de adicionar a 'Forma Pagamento. Caso o usuário já tenha cadastrado então exibir as informações da forma de pagamento e disponibilizar botão para ele editar esta Forma de Pagamento</t>
-  </si>
-  <si>
-    <t>Dono Barco ao clicar em 'Forma Recebimento Pagamento' </t>
-  </si>
-  <si>
-    <t>Se dono barco ainda nao cadastrou entao mensagem dizendo que ele ainda não adicionou nenhuma forma de recebimento de pagamento. E botão de adicionar a 'Forma Recebimento Pagamento. Caso o usuário já tenha cadastrado então exibir as informações da forma de pagamento e disponibilizar botão para ele editar esta Forma de Recebimento Pagamento</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição Teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado Esperado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criar combo onde o usuario pode selecionar as opções: “dono barco” ou “cliente”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fazer com que seja cadastrado o barco com o ID do usuario da sessao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fazer com que seja atualizado o barco com o ID do usuario da sessao e ID do barco selecionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluir Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fazer com que seja excluido o barco com o ID do usuario da sessao e ID do barco selecionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meus Barcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listar os barcos usando o ID do usuário da sessão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Conta Usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atualizar conta do usuário utilizando o ID do usuario da sessao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quando o usuário se logar no app, tratar o menu de acordo com o perfil do usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Opcionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permitir o dono barco adicionar opcionais a um barco sendo visualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Opcionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permitir o dono barco editar opcionais a um barco sendo visualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluir Opcionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permitir o dono barco excluir opcionais a um barco sendo visualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Plano Reserva Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dono do barco incluir um novo plano usando o ID do usuario da sessao e o ID do barco selecionado (falta criar a tabela de Historico de Planos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incompleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se barco não tiver inicialmente nenhum associado então exibir mensagem de que nenhum plano foi incluido. Se o barco já tiver um plano associado então incluir o plano atual na tabela de historico. (esta desenvolvido, mas funcionalidade ainda não está 100%) de planos e substitui-lo pelo plano a ser incluido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atualizar Plano Reserva Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dono do barco atualizar o plano atual usando o ID do usuario da sessao e o ID do barco selecionado (falta criar a tabela de Historico de Planos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesquisar Barcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuperar barcos de acordo com os filtros selecionados, os barcos serão selecionados de acordo com os planos de reservas ativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalhes Barcos na visão do Dono Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">após pesquisar barcos, o cliente poder selecionar e visualizar os detalhes do barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalhes Barcos na visão do Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitar Reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">após pesquisar barcos, o cliente poder selecionar e visualizar os detalhes do barco, usando o ID do usuario sessao e o ID do barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceitar ou Rejeitar solicitação de Reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Após o cliente solicitar a reserva do barco, o dono do barco deverá sinalizar que aceita ou rejeita esta solicitação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerar Ordem de Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Após o cliente solicitar a reserva de um barco e o dono do barco aceitar esta solicitação, o sistema deve utilizar o ID do barco selecionado, o ID do usuario da SESSAO e o ID do dono do barco para registrar uma nova Ordem de pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Ordem de Pagamento pelo Dono Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dono barco lista as ordens de pagamento que está para receber a partir da solicitação de reservas feitas para seus barcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Ordem de Pagamento pelo Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente lista as suas ordens de pagamentos geradas a partir de suas solicitações de reservas anteriormente requeridas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente efeuta pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Após o cliente solicitar a reserva, o dono do barco aceitar a reserva e o sistema gerar a ordem de pagamento, o cliente efetua o pagamento a partir desta ordem de pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar reservas solicitadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente listar suas reservas solicitadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar Historico Plano Reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dono do Barco registrar um novo plano de reserva do barco, substituindo o plano anteriormente cadastrado. E o plano substituido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar histórico planos de reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dono Barco listar o historico de planos de seu barco selecionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliar Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente poder avaliar um barco logo após ele ter utilizado o barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta testar funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicialmente usar uma combo que varia de 1 a 5. E mais para frente utilizar estrelas para permitir realizar a avaliação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliar Dono Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente poder avaliar o dono barco logo após o cliente ter utilizado ou pelo menos ele ter solicitado a reserva do barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliar Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dono barco poder avaliar um cliente logo após ele ter utilizado o barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir campo Disponivel na tabela Barco do tipo CHAR(1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir campo Disponivel na tabela Usuario do tipo CHAR(1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta ainda fazer o tratamento pra que quando Disponivel = ‘N’ então colocar todos os barco do Dono igual a ‘N’. E disponibilizar este campo apenas para usuarios com perfil Dono Barco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este flag deverá estar disponivel apenas para Donos de barco Se Disponivel = ‘S’ então TODOS os barcos poderá aparecer nas pesquisas de barco.  Se Disponivel = ‘N’ nenhum barco deverá aparecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dono Barco editar suas informações, colocando Disponivel = 'N'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colocando campo Disponivel = 'N' então todos os barcos deste usuário com perfil Dono de Barco não deverão estar disponiveis no “Pesquisar Barcos”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dono Barco estando inicialmente com o campo Disponivel = 'N', ele edita este campo e coloca Disponível = 'S'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Após a edição para campo Disponivel = 'S', os barcos do Dono Barco volta a aparecer na funcionalidade “Pesquisar Barcos”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dono Barco coloca o seu barco com o campo Disponível = 'N'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especificamente este barco não irá aparecer nos resultados do “Pesquisar Barcos”, os seus demais barcos deverão aparecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dono Barco coloca o seu barco com o campo Disponível = 'S', sendo que inicialmente este barco tinha valor Disponivel ='N'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especificamente este barco volta a aparecer nos resultados do “Pesquisar Barcos”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Forma Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionalidade disponivel para usuarios Clientes para cadastrarem a sua forma pagamento a ser usada para pagar as Ordebs de pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar  Forma Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionalidade disponivel para usuarios Clientes para editarem a sua forma pagamento  a ser usada para pagar as Ordebs de pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar tabela FormaPagamentoRecebimento que será usado pelo Dono do Barco para definir qual Agencia e Conta de pagamento que ele deseja receber o pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Forma Pagamento Recebimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionalidade disponivel para usuarios Donos de barco para cadastrarema em qual conta de banco desejam receber seus pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Forma Pagamento Recebimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar tabela RecebimentoPagamento que será usada paga registrar os pagamentos que o sistema deverá enviar o dono do pagamento. Um registro desta tabela poderá estar associada a 1 ou mais registros da tabela OrdemPagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar tabela FormaPagamento que será usado pelo Cliente para definir como ele efetuará os pagamentos das Reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Forma Pagamento Recebimento para usuário Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Forma Pagamento para usuário Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferir Pagamentos que o Dono do Barco tem direito a receber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir ainda um fluxo de processo e regras para esta operação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente deseja cancelar solicitação de reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir ainda um fluxo de processo, os cenários possíveis  e regras para esta operação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente deseja cancelar ordem de pagamento recebida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente deseja receber cancelar uma reserva de barco já paga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente ao clicar em 'Forma Pagamento' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cliente ainda nao cadastrou entao mensagem dizendo que ele ainda não adicionou nenhuma forma de pagamento. E botão de adicionar a 'Forma Pagamento. Caso o usuário já tenha cadastrado então exibir as informações da forma de pagamento e disponibilizar botão para ele editar esta Forma de Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dono Barco ao clicar em 'Forma Recebimento Pagamento' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se dono barco ainda nao cadastrou entao mensagem dizendo que ele ainda não adicionou nenhuma forma de recebimento de pagamento. E botão de adicionar a 'Forma Recebimento Pagamento. Caso o usuário já tenha cadastrado então exibir as informações da forma de pagamento e disponibilizar botão para ele editar esta Forma de Recebimento Pagamento</t>
   </si>
 </sst>
 </file>
@@ -330,13 +324,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -354,7 +349,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +366,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -415,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -461,6 +462,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -516,7 +529,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -541,21 +554,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:G55"/>
+  <dimension ref="A4:G54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.030612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,39 +1031,37 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="D35" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="G35" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1058,10 +1069,10 @@
         <v>29</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
@@ -1072,10 +1083,10 @@
         <v>30</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
@@ -1086,10 +1097,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
@@ -1100,49 +1111,53 @@
         <v>32</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="50.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" customFormat="false" ht="50.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="10"/>
+      <c r="E41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="84.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="n">
         <v>35</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
@@ -1152,110 +1167,122 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="58.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="116.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="79.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="116.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="C46" s="10" t="s">
+    <row r="46" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="62.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" customFormat="false" ht="62.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="63.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" customFormat="false" ht="63.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="9" t="n">
-        <v>43</v>
+      <c r="G49" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="10" t="n">
+        <v>44</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>93</v>
@@ -1264,69 +1291,59 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="10" t="n">
-        <v>45</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="10" t="n">
-        <v>46</v>
-      </c>
-      <c r="C53" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="111.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="111.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="121.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" customFormat="false" ht="121.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="10" t="n">
-        <v>48</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="10"/>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>

--- a/Planilha Demandas.xlsx
+++ b/Planilha Demandas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,303 +20,318 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição Teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado Esperado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criar combo onde o usuario pode selecionar as opções: “dono barco” ou “cliente”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fazer com que seja cadastrado o barco com o ID do usuario da sessao </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fazer com que seja atualizado o barco com o ID do usuario da sessao e ID do barco selecionado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluir Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fazer com que seja excluido o barco com o ID do usuario da sessao e ID do barco selecionado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus Barcos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listar os barcos usando o ID do usuário da sessão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar Conta Usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atualizar conta do usuário utilizando o ID do usuario da sessao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quando o usuário se logar no app, tratar o menu de acordo com o perfil do usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Opcionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permitir o dono barco adicionar opcionais a um barco sendo visualizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar Opcionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permitir o dono barco editar opcionais a um barco sendo visualizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluir Opcionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permitir o dono barco excluir opcionais a um barco sendo visualizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Plano Reserva Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dono do barco incluir um novo plano usando o ID do usuario da sessao e o ID do barco selecionado (falta criar a tabela de Historico de Planos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incompleto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se barco não tiver inicialmente nenhum associado então exibir mensagem de que nenhum plano foi incluido. Se o barco já tiver um plano associado então incluir o plano atual na tabela de historico. (esta desenvolvido, mas funcionalidade ainda não está 100%) de planos e substitui-lo pelo plano a ser incluido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atualizar Plano Reserva Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dono do barco atualizar o plano atual usando o ID do usuario da sessao e o ID do barco selecionado (falta criar a tabela de Historico de Planos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesquisar Barcos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recuperar barcos de acordo com os filtros selecionados, os barcos serão selecionados de acordo com os planos de reservas ativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detalhes Barcos na visão do Dono Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">após pesquisar barcos, o cliente poder selecionar e visualizar os detalhes do barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detalhes Barcos na visão do Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitar Reserva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">após pesquisar barcos, o cliente poder selecionar e visualizar os detalhes do barco, usando o ID do usuario sessao e o ID do barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aceitar ou Rejeitar solicitação de Reserva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Após o cliente solicitar a reserva do barco, o dono do barco deverá sinalizar que aceita ou rejeita esta solicitação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerar Ordem de Pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Após o cliente solicitar a reserva de um barco e o dono do barco aceitar esta solicitação, o sistema deve utilizar o ID do barco selecionado, o ID do usuario da SESSAO e o ID do dono do barco para registrar uma nova Ordem de pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar Ordem de Pagamento pelo Dono Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono barco lista as ordens de pagamento que está para receber a partir da solicitação de reservas feitas para seus barcos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar Ordem de Pagamento pelo Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente lista as suas ordens de pagamentos geradas a partir de suas solicitações de reservas anteriormente requeridas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente efeuta pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Após o cliente solicitar a reserva, o dono do barco aceitar a reserva e o sistema gerar a ordem de pagamento, o cliente efetua o pagamento a partir desta ordem de pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar reservas solicitadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente listar suas reservas solicitadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registrar Historico Plano Reserva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono do Barco registrar um novo plano de reserva do barco, substituindo o plano anteriormente cadastrado. E o plano substituido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar histórico planos de reserva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono Barco listar o historico de planos de seu barco selecionado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente poder avaliar um barco logo após ele ter utilizado o barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">falta testar funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicialmente usar uma combo que varia de 1 a 5. E mais para frente utilizar estrelas para permitir realizar a avaliação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar Dono Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente poder avaliar o dono barco logo após o cliente ter utilizado ou pelo menos ele ter solicitado a reserva do barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono barco poder avaliar um cliente logo após ele ter utilizado o barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir campo Disponivel na tabela Barco do tipo CHAR(1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar Usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir campo Disponivel na tabela Usuario do tipo CHAR(1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta ainda fazer o tratamento pra que quando Disponivel = ‘N’ então colocar todos os barco do Dono igual a ‘N’. E disponibilizar este campo apenas para usuarios com perfil Dono Barco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este flag deverá estar disponivel apenas para Donos de barco Se Disponivel = ‘S’ então TODOS os barcos poderá aparecer nas pesquisas de barco.  Se Disponivel = ‘N’ nenhum barco deverá aparecer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono Barco editar suas informações, colocando Disponivel = 'N'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colocando campo Disponivel = 'N' então todos os barcos deste usuário com perfil Dono de Barco não deverão estar disponiveis no “Pesquisar Barcos”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono Barco estando inicialmente com o campo Disponivel = 'N', ele edita este campo e coloca Disponível = 'S'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Após a edição para campo Disponivel = 'S', os barcos do Dono Barco volta a aparecer na funcionalidade “Pesquisar Barcos”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono Barco coloca o seu barco com o campo Disponível = 'N'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especificamente este barco não irá aparecer nos resultados do “Pesquisar Barcos”, os seus demais barcos deverão aparecer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono Barco coloca o seu barco com o campo Disponível = 'S', sendo que inicialmente este barco tinha valor Disponivel ='N'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especificamente este barco volta a aparecer nos resultados do “Pesquisar Barcos”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Forma Pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionalidade disponivel para usuarios Clientes para cadastrarem a sua forma pagamento a ser usada para pagar as Ordebs de pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar  Forma Pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionalidade disponivel para usuarios Clientes para editarem a sua forma pagamento  a ser usada para pagar as Ordebs de pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar tabela FormaPagamentoRecebimento que será usado pelo Dono do Barco para definir qual Agencia e Conta de pagamento que ele deseja receber o pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Forma Pagamento Recebimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionalidade disponivel para usuarios Donos de barco para cadastrarema em qual conta de banco desejam receber seus pagamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar Forma Pagamento Recebimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar tabela RecebimentoPagamento que será usada paga registrar os pagamentos que o sistema deverá enviar o dono do pagamento. Um registro desta tabela poderá estar associada a 1 ou mais registros da tabela OrdemPagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar tabela FormaPagamento que será usado pelo Cliente para definir como ele efetuará os pagamentos das Reservas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Forma Pagamento Recebimento para usuário Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar Forma Pagamento para usuário Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transferir Pagamentos que o Dono do Barco tem direito a receber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir ainda um fluxo de processo e regras para esta operação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente deseja cancelar solicitação de reserva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir ainda um fluxo de processo, os cenários possíveis  e regras para esta operação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente deseja cancelar ordem de pagamento recebida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente deseja receber cancelar uma reserva de barco já paga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente ao clicar em 'Forma Pagamento' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se cliente ainda nao cadastrou entao mensagem dizendo que ele ainda não adicionou nenhuma forma de pagamento. E botão de adicionar a 'Forma Pagamento. Caso o usuário já tenha cadastrado então exibir as informações da forma de pagamento e disponibilizar botão para ele editar esta Forma de Pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono Barco ao clicar em 'Forma Recebimento Pagamento' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se dono barco ainda nao cadastrou entao mensagem dizendo que ele ainda não adicionou nenhuma forma de recebimento de pagamento. E botão de adicionar a 'Forma Recebimento Pagamento. Caso o usuário já tenha cadastrado então exibir as informações da forma de pagamento e disponibilizar botão para ele editar esta Forma de Recebimento Pagamento</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Cenario</t>
+  </si>
+  <si>
+    <t>Descrição Teste</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Cadastrar Usuario</t>
+  </si>
+  <si>
+    <t>criar combo onde o usuario pode selecionar as opções: “dono barco” ou “cliente”</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Cadastrar Barco</t>
+  </si>
+  <si>
+    <t>fazer com que seja cadastrado o barco com o ID do usuario da sessao </t>
+  </si>
+  <si>
+    <t>Editar Barco</t>
+  </si>
+  <si>
+    <t>fazer com que seja atualizado o barco com o ID do usuario da sessao e ID do barco selecionado</t>
+  </si>
+  <si>
+    <t>Excluir Barco</t>
+  </si>
+  <si>
+    <t>fazer com que seja excluido o barco com o ID do usuario da sessao e ID do barco selecionado</t>
+  </si>
+  <si>
+    <t>Meus Barcos</t>
+  </si>
+  <si>
+    <t>listar os barcos usando o ID do usuário da sessão</t>
+  </si>
+  <si>
+    <t>Editar Conta Usuário</t>
+  </si>
+  <si>
+    <t>atualizar conta do usuário utilizando o ID do usuario da sessao</t>
+  </si>
+  <si>
+    <t>Login Usuario</t>
+  </si>
+  <si>
+    <t>quando o usuário se logar no app, tratar o menu de acordo com o perfil do usuário</t>
+  </si>
+  <si>
+    <t>Cadastrar Opcionais</t>
+  </si>
+  <si>
+    <t>permitir o dono barco adicionar opcionais a um barco sendo visualizado</t>
+  </si>
+  <si>
+    <t>Editar Opcionais</t>
+  </si>
+  <si>
+    <t>permitir o dono barco editar opcionais a um barco sendo visualizado</t>
+  </si>
+  <si>
+    <t>Excluir Opcionais</t>
+  </si>
+  <si>
+    <t>permitir o dono barco excluir opcionais a um barco sendo visualizado</t>
+  </si>
+  <si>
+    <t>Cadastrar Plano Reserva Barco</t>
+  </si>
+  <si>
+    <t>dono do barco incluir um novo plano usando o ID do usuario da sessao e o ID do barco selecionado (falta criar a tabela de Historico de Planos)</t>
+  </si>
+  <si>
+    <t>incompleto</t>
+  </si>
+  <si>
+    <t>Se barco não tiver inicialmente nenhum associado então exibir mensagem de que nenhum plano foi incluido. Se o barco já tiver um plano associado então incluir o plano atual na tabela de historico. (esta desenvolvido, mas funcionalidade ainda não está 100%) de planos e substitui-lo pelo plano a ser incluido</t>
+  </si>
+  <si>
+    <t>Atualizar Plano Reserva Barco</t>
+  </si>
+  <si>
+    <t>dono do barco atualizar o plano atual usando o ID do usuario da sessao e o ID do barco selecionado (falta criar a tabela de Historico de Planos)</t>
+  </si>
+  <si>
+    <t>Pesquisar Barcos</t>
+  </si>
+  <si>
+    <t>recuperar barcos de acordo com os filtros selecionados, os barcos serão selecionados de acordo com os planos de reservas ativos</t>
+  </si>
+  <si>
+    <t>Detalhes Barcos na visão do Dono Barco</t>
+  </si>
+  <si>
+    <t>após pesquisar barcos, o cliente poder selecionar e visualizar os detalhes do barco</t>
+  </si>
+  <si>
+    <t>Detalhes Barcos na visão do Cliente</t>
+  </si>
+  <si>
+    <t>Na funcionalidade “Pesquisar Barcos” fazer um tratamento onde se o usuário escolher a opção “Por Data” então habilitar os campos “Data”</t>
+  </si>
+  <si>
+    <t>Nao haverá mais campo “Data inicio” e “Data Fim”, apenas campo “Data”. O Cliente deverá escolher uma única data especifica</t>
+  </si>
+  <si>
+    <t>Solicitar Reserva</t>
+  </si>
+  <si>
+    <t>após pesquisar barcos, o cliente poder selecionar e visualizar os detalhes do barco, usando o ID do usuario sessao e o ID do barco</t>
+  </si>
+  <si>
+    <t>Aceitar ou Rejeitar solicitação de Reserva</t>
+  </si>
+  <si>
+    <t>Após o cliente solicitar a reserva do barco, o dono do barco deverá sinalizar que aceita ou rejeita esta solicitação</t>
+  </si>
+  <si>
+    <t>Gerar Ordem de Pagamento</t>
+  </si>
+  <si>
+    <t>Após o cliente solicitar a reserva de um barco e o dono do barco aceitar esta solicitação, o sistema deve utilizar o ID do barco selecionado, o ID do usuario da SESSAO e o ID do dono do barco para registrar uma nova Ordem de pagamento</t>
+  </si>
+  <si>
+    <t>Listar Ordem de Pagamento pelo Dono Barco</t>
+  </si>
+  <si>
+    <t>Dono barco lista as ordens de pagamento que está para receber a partir da solicitação de reservas feitas para seus barcos</t>
+  </si>
+  <si>
+    <t>Listar Ordem de Pagamento pelo Cliente</t>
+  </si>
+  <si>
+    <t>Cliente lista as suas ordens de pagamentos geradas a partir de suas solicitações de reservas anteriormente requeridas</t>
+  </si>
+  <si>
+    <t>Cliente efeuta pagamento</t>
+  </si>
+  <si>
+    <t>Após o cliente solicitar a reserva, o dono do barco aceitar a reserva e o sistema gerar a ordem de pagamento, o cliente efetua o pagamento a partir desta ordem de pagamento</t>
+  </si>
+  <si>
+    <t>Listar reservas solicitadas</t>
+  </si>
+  <si>
+    <t>Cliente listar suas reservas solicitadas</t>
+  </si>
+  <si>
+    <t>Registrar Historico Plano Reserva</t>
+  </si>
+  <si>
+    <t>Dono do Barco registrar um novo plano de reserva do barco, substituindo o plano anteriormente cadastrado. E o plano substituido</t>
+  </si>
+  <si>
+    <t>Listar histórico planos de reserva</t>
+  </si>
+  <si>
+    <t>Dono Barco listar o historico de planos de seu barco selecionado</t>
+  </si>
+  <si>
+    <t>Avaliar Barco</t>
+  </si>
+  <si>
+    <t>Cliente poder avaliar um barco logo após ele ter utilizado o barco</t>
+  </si>
+  <si>
+    <t>falta testar funcionalidade</t>
+  </si>
+  <si>
+    <t>Inicialmente usar uma combo que varia de 1 a 5. E mais para frente utilizar estrelas para permitir realizar a avaliação.</t>
+  </si>
+  <si>
+    <t>Avaliar Dono Barco</t>
+  </si>
+  <si>
+    <t>Cliente poder avaliar o dono barco logo após o cliente ter utilizado ou pelo menos ele ter solicitado a reserva do barco</t>
+  </si>
+  <si>
+    <t>Avaliar Cliente</t>
+  </si>
+  <si>
+    <t>Dono barco poder avaliar um cliente logo após ele ter utilizado o barco</t>
+  </si>
+  <si>
+    <t>Incluir campo Disponivel na tabela Barco do tipo CHAR(1) </t>
+  </si>
+  <si>
+    <t>Editar Usuário</t>
+  </si>
+  <si>
+    <t>Incluir campo Disponivel na tabela Usuario do tipo CHAR(1) </t>
+  </si>
+  <si>
+    <t>Falta ainda fazer o tratamento pra que quando Disponivel = ‘N’ então colocar todos os barco do Dono igual a ‘N’. E disponibilizar este campo apenas para usuarios com perfil Dono Barco</t>
+  </si>
+  <si>
+    <t>Este flag deverá estar disponivel apenas para Donos de barco Se Disponivel = ‘S’ então TODOS os barcos poderá aparecer nas pesquisas de barco.  Se Disponivel = ‘N’ nenhum barco deverá aparecer</t>
+  </si>
+  <si>
+    <t>Dono Barco editar suas informações, colocando Disponivel = 'N'</t>
+  </si>
+  <si>
+    <t>Colocando campo Disponivel = 'N' então todos os barcos deste usuário com perfil Dono de Barco não deverão estar disponiveis no “Pesquisar Barcos”.</t>
+  </si>
+  <si>
+    <t>Dono Barco estando inicialmente com o campo Disponivel = 'N', ele edita este campo e coloca Disponível = 'S'</t>
+  </si>
+  <si>
+    <t>Após a edição para campo Disponivel = 'S', os barcos do Dono Barco volta a aparecer na funcionalidade “Pesquisar Barcos”</t>
+  </si>
+  <si>
+    <t>Dono Barco coloca o seu barco com o campo Disponível = 'N'</t>
+  </si>
+  <si>
+    <t>Especificamente este barco não irá aparecer nos resultados do “Pesquisar Barcos”, os seus demais barcos deverão aparecer</t>
+  </si>
+  <si>
+    <t>Dono Barco coloca o seu barco com o campo Disponível = 'S', sendo que inicialmente este barco tinha valor Disponivel ='N'</t>
+  </si>
+  <si>
+    <t>Especificamente este barco volta a aparecer nos resultados do “Pesquisar Barcos”</t>
+  </si>
+  <si>
+    <t>Cadastrar Forma Pagamento</t>
+  </si>
+  <si>
+    <t>Funcionalidade disponivel para usuarios Clientes para cadastrarem a sua forma pagamento a ser usada para pagar as Ordebs de pagamento</t>
+  </si>
+  <si>
+    <t>Editar  Forma Pagamento</t>
+  </si>
+  <si>
+    <t>Funcionalidade disponivel para usuarios Clientes para editarem a sua forma pagamento  a ser usada para pagar as Ordebs de pagamento</t>
+  </si>
+  <si>
+    <t>Criar tabela FormaPagamentoRecebimento que será usado pelo Dono do Barco para definir qual Agencia e Conta de pagamento que ele deseja receber o pagamento</t>
+  </si>
+  <si>
+    <t>Cadastrar Forma Pagamento Recebimento</t>
+  </si>
+  <si>
+    <t>Funcionalidade disponivel para usuarios Donos de barco para cadastrarema em qual conta de banco desejam receber seus pagamentos</t>
+  </si>
+  <si>
+    <t>Editar Forma Pagamento Recebimento</t>
+  </si>
+  <si>
+    <t>Criar tabela RecebimentoPagamento que será usada paga registrar os pagamentos que o sistema deverá enviar o dono do pagamento. Um registro desta tabela poderá estar associada a 1 ou mais registros da tabela OrdemPagamento</t>
+  </si>
+  <si>
+    <t>Criar tabela FormaPagamento que será usado pelo Cliente para definir como ele efetuará os pagamentos das Reservas</t>
+  </si>
+  <si>
+    <t>Cadastrar Forma Pagamento Recebimento para usuário Cliente</t>
+  </si>
+  <si>
+    <t>Editar Forma Pagamento para usuário Cliente</t>
+  </si>
+  <si>
+    <t>Transferir Pagamentos que o Dono do Barco tem direito a receber</t>
+  </si>
+  <si>
+    <t>Definir ainda um fluxo de processo e regras para esta operação</t>
+  </si>
+  <si>
+    <t>Cliente deseja cancelar solicitação de reserva</t>
+  </si>
+  <si>
+    <t>Definir ainda um fluxo de processo, os cenários possíveis  e regras para esta operação</t>
+  </si>
+  <si>
+    <t>Cliente deseja cancelar ordem de pagamento recebida</t>
+  </si>
+  <si>
+    <t>Cliente deseja receber cancelar uma reserva de barco já paga</t>
+  </si>
+  <si>
+    <t>Cliente ao clicar em 'Forma Pagamento' </t>
+  </si>
+  <si>
+    <t>Se cliente ainda nao cadastrou entao mensagem dizendo que ele ainda não adicionou nenhuma forma de pagamento. E botão de adicionar a 'Forma Pagamento. Caso o usuário já tenha cadastrado então exibir as informações da forma de pagamento e disponibilizar botão para ele editar esta Forma de Pagamento</t>
+  </si>
+  <si>
+    <t>Dono Barco ao clicar em 'Forma Recebimento Pagamento' </t>
+  </si>
+  <si>
+    <t>Se dono barco ainda nao cadastrou entao mensagem dizendo que ele ainda não adicionou nenhuma forma de recebimento de pagamento. E botão de adicionar a 'Forma Recebimento Pagamento. Caso o usuário já tenha cadastrado então exibir as informações da forma de pagamento e disponibilizar botão para ele editar esta Forma de Recebimento Pagamento</t>
+  </si>
+  <si>
+    <t>Criar funcionalidade “Mudar Senha”</t>
+  </si>
+  <si>
+    <t>Falta testar funcionalidade</t>
+  </si>
+  <si>
+    <t>Criar campo 'TipoBarco' na tabela 'PlanoReservaBarco'</t>
   </si>
 </sst>
 </file>
@@ -324,7 +339,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -349,7 +364,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,7 +386,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF33FF99"/>
-        <bgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF66FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor rgb="FF33FF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -416,7 +437,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,6 +496,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -522,7 +547,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FF66FF99"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -554,21 +579,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:G54"/>
+  <dimension ref="A4:G57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I55" activeCellId="0" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,23 +857,23 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9" t="n">
+    <row r="21" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="83.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>40</v>
@@ -862,7 +887,7 @@
     </row>
     <row r="23" customFormat="false" ht="83.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>42</v>
@@ -876,9 +901,9 @@
     </row>
     <row r="24" customFormat="false" ht="83.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="C24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -888,11 +913,11 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="83.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="C25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -902,11 +927,11 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="C26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -916,9 +941,9 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>50</v>
@@ -931,24 +956,22 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>54</v>
@@ -963,58 +986,56 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9" t="n">
+      <c r="C31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="56.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>62</v>
@@ -1024,63 +1045,67 @@
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="56.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="12" t="n">
+      <c r="D35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="G36" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>71</v>
@@ -1094,7 +1119,7 @@
     </row>
     <row r="38" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>73</v>
@@ -1108,7 +1133,7 @@
     </row>
     <row r="39" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>75</v>
@@ -1120,25 +1145,23 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="n">
+    <row r="40" customFormat="false" ht="88.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3" t="n">
         <v>33</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="50.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="n">
-        <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>79</v>
@@ -1152,45 +1175,45 @@
       <c r="F41" s="5"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="84.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="50.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="58.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="84.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="58.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3" t="n">
         <v>36</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3" t="n">
-        <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>8</v>
@@ -1198,38 +1221,40 @@
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="116.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="9" t="n">
+    <row r="45" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="116.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3" t="n">
+      <c r="C46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" customFormat="false" ht="62.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="n">
-        <v>41</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
@@ -1238,12 +1263,12 @@
       <c r="F47" s="5"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="62.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
@@ -1252,37 +1277,37 @@
       <c r="F48" s="5"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="63.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="9" t="n">
+    <row r="49" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="63.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="9" t="n">
         <v>43</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="10" t="n">
-        <v>44</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>93</v>
@@ -1291,42 +1316,40 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="111.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="111.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="4" t="n">
         <v>47</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" customFormat="false" ht="121.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4" t="n">
-        <v>48</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>97</v>
@@ -1339,11 +1362,53 @@
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="121.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="56.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="15" t="n">
+        <v>49</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="74.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
